--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지7.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298884E3-3669-48A7-96DA-5266AF64BE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6264BB19-8DFD-42CB-A75D-2E5C5957B458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="1637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="1638">
   <si>
     <t>Time</t>
   </si>
@@ -4948,6 +4948,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -5319,21 +5322,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="54.5" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5347,10 +5349,10 @@
         <v>1636</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5365,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5395,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5410,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5440,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5455,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5485,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5500,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5515,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5530,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5560,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5575,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5590,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5620,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5635,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5680,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5695,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5710,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5743,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5758,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5773,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5788,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5803,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -5836,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5866,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5929,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -5944,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -5959,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5989,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -6004,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -6019,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -6064,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -6079,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -6094,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -6109,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -6124,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -6142,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -6157,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -6187,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6202,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -6217,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -6235,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -6250,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -6265,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -6295,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -6310,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -6325,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -6358,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -6376,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -6391,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -6406,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -6436,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -6451,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -6466,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6496,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6529,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -6559,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -6589,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -6607,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6637,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -6652,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -6667,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -6685,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -6700,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -6715,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -6733,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -6748,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -6763,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -6778,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -6793,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -6811,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -6826,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -6841,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -6856,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -6871,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -6886,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -6916,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -6979,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -6994,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -7009,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -7024,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -7039,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -7069,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -7084,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -7099,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -7114,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -7129,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -7144,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -7159,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -7189,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -7204,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -7234,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -7249,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -7264,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -7279,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -7294,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -7309,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -7324,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -7354,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -7369,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -7402,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -7417,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -7432,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -7450,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -7465,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -7480,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -7510,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -7525,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -7540,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -7555,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -7570,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -7585,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -7600,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -7615,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -7630,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -7645,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>303</v>
       </c>
@@ -7660,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -7675,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -7690,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -7705,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -7735,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>315</v>
       </c>
@@ -7750,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -7765,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -7780,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>321</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>323</v>
       </c>
@@ -7810,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -7825,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>327</v>
       </c>
@@ -7840,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -7858,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>331</v>
       </c>
@@ -7873,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -7888,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>335</v>
       </c>
@@ -7906,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>337</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>339</v>
       </c>
@@ -7936,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>341</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -7966,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -7981,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>347</v>
       </c>
@@ -7996,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>351</v>
       </c>
@@ -8029,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -8044,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>355</v>
       </c>
@@ -8059,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>359</v>
       </c>
@@ -8089,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>361</v>
       </c>
@@ -8104,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>365</v>
       </c>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>367</v>
       </c>
@@ -8149,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>369</v>
       </c>
@@ -8164,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -8194,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>375</v>
       </c>
@@ -8209,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>377</v>
       </c>
@@ -8224,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>379</v>
       </c>
@@ -8239,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>381</v>
       </c>
@@ -8254,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>383</v>
       </c>
@@ -8269,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>385</v>
       </c>
@@ -8284,7 +8286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>387</v>
       </c>
@@ -8299,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -8314,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>391</v>
       </c>
@@ -8329,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -8344,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>395</v>
       </c>
@@ -8359,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>397</v>
       </c>
@@ -8374,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>399</v>
       </c>
@@ -8389,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>401</v>
       </c>
@@ -8404,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>403</v>
       </c>
@@ -8419,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>405</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>409</v>
       </c>
@@ -8464,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>411</v>
       </c>
@@ -8479,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>413</v>
       </c>
@@ -8494,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>415</v>
       </c>
@@ -8509,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>417</v>
       </c>
@@ -8524,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>419</v>
       </c>
@@ -8539,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>421</v>
       </c>
@@ -8554,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>423</v>
       </c>
@@ -8569,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>425</v>
       </c>
@@ -8584,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -8599,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -8614,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -8629,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -8647,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -8662,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -8677,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -8692,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>441</v>
       </c>
@@ -8707,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>443</v>
       </c>
@@ -8722,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>445</v>
       </c>
@@ -8737,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>447</v>
       </c>
@@ -8752,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>449</v>
       </c>
@@ -8767,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>451</v>
       </c>
@@ -8782,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>452</v>
       </c>
@@ -8797,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>453</v>
       </c>
@@ -8815,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>455</v>
       </c>
@@ -8830,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>457</v>
       </c>
@@ -8848,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>459</v>
       </c>
@@ -8863,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>461</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>463</v>
       </c>
@@ -8893,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>465</v>
       </c>
@@ -8908,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>467</v>
       </c>
@@ -8923,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>469</v>
       </c>
@@ -8938,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>471</v>
       </c>
@@ -8953,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>473</v>
       </c>
@@ -8968,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>475</v>
       </c>
@@ -8983,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>477</v>
       </c>
@@ -8998,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>479</v>
       </c>
@@ -9016,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>481</v>
       </c>
@@ -9031,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>483</v>
       </c>
@@ -9046,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>485</v>
       </c>
@@ -9061,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>487</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>489</v>
       </c>
@@ -9091,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>491</v>
       </c>
@@ -9106,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>493</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>495</v>
       </c>
@@ -9136,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>497</v>
       </c>
@@ -9151,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>499</v>
       </c>
@@ -9166,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>501</v>
       </c>
@@ -9181,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>503</v>
       </c>
@@ -9196,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>505</v>
       </c>
@@ -9211,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>507</v>
       </c>
@@ -9226,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>509</v>
       </c>
@@ -9241,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>511</v>
       </c>
@@ -9256,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>513</v>
       </c>
@@ -9271,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>515</v>
       </c>
@@ -9286,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>517</v>
       </c>
@@ -9301,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>519</v>
       </c>
@@ -9316,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>521</v>
       </c>
@@ -9331,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>523</v>
       </c>
@@ -9346,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>525</v>
       </c>
@@ -9361,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>527</v>
       </c>
@@ -9376,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>529</v>
       </c>
@@ -9391,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>531</v>
       </c>
@@ -9406,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>533</v>
       </c>
@@ -9421,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>535</v>
       </c>
@@ -9436,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>537</v>
       </c>
@@ -9451,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>539</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>541</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>543</v>
       </c>
@@ -9496,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>545</v>
       </c>
@@ -9511,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>547</v>
       </c>
@@ -9526,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>547</v>
       </c>
@@ -9541,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>550</v>
       </c>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>552</v>
       </c>
@@ -9571,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>554</v>
       </c>
@@ -9586,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -9601,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>558</v>
       </c>
@@ -9616,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>560</v>
       </c>
@@ -9631,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -9649,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>564</v>
       </c>
@@ -9667,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>566</v>
       </c>
@@ -9685,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -9700,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -9718,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>572</v>
       </c>
@@ -9733,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>574</v>
       </c>
@@ -9748,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -9763,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -9778,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -9808,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -9823,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -9838,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -9853,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>590</v>
       </c>
@@ -9868,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -9886,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>594</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -9916,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -9931,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>600</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -9964,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>604</v>
       </c>
@@ -9979,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -9994,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>608</v>
       </c>
@@ -10009,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -10024,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -10042,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -10057,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -10072,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>618</v>
       </c>
@@ -10090,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>620</v>
       </c>
@@ -10105,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>622</v>
       </c>
@@ -10120,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>624</v>
       </c>
@@ -10135,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>626</v>
       </c>
@@ -10150,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>628</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -10183,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -10198,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>634</v>
       </c>
@@ -10213,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>636</v>
       </c>
@@ -10228,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>638</v>
       </c>
@@ -10243,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>640</v>
       </c>
@@ -10258,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>642</v>
       </c>
@@ -10276,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>644</v>
       </c>
@@ -10291,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>646</v>
       </c>
@@ -10306,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>648</v>
       </c>
@@ -10321,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>650</v>
       </c>
@@ -10339,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>652</v>
       </c>
@@ -10357,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>654</v>
       </c>
@@ -10372,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>656</v>
       </c>
@@ -10387,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>658</v>
       </c>
@@ -10402,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>660</v>
       </c>
@@ -10417,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>662</v>
       </c>
@@ -10432,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>664</v>
       </c>
@@ -10447,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>666</v>
       </c>
@@ -10462,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>668</v>
       </c>
@@ -10477,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>670</v>
       </c>
@@ -10492,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>672</v>
       </c>
@@ -10507,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>674</v>
       </c>
@@ -10522,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>676</v>
       </c>
@@ -10537,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>678</v>
       </c>
@@ -10552,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>680</v>
       </c>
@@ -10570,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>682</v>
       </c>
@@ -10585,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>684</v>
       </c>
@@ -10603,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>686</v>
       </c>
@@ -10618,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>688</v>
       </c>
@@ -10633,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>690</v>
       </c>
@@ -10648,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>692</v>
       </c>
@@ -10663,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>694</v>
       </c>
@@ -10678,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>696</v>
       </c>
@@ -10693,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>698</v>
       </c>
@@ -10708,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>700</v>
       </c>
@@ -10723,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>702</v>
       </c>
@@ -10738,7 +10740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>704</v>
       </c>
@@ -10753,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>706</v>
       </c>
@@ -10768,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>708</v>
       </c>
@@ -10783,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>710</v>
       </c>
@@ -10798,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>712</v>
       </c>
@@ -10813,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>714</v>
       </c>
@@ -10828,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>716</v>
       </c>
@@ -10843,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>718</v>
       </c>
@@ -10858,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>720</v>
       </c>
@@ -10876,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>722</v>
       </c>
@@ -10891,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>724</v>
       </c>
@@ -10906,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>726</v>
       </c>
@@ -10924,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>728</v>
       </c>
@@ -10939,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>730</v>
       </c>
@@ -10954,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>732</v>
       </c>
@@ -10969,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>734</v>
       </c>
@@ -10984,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>736</v>
       </c>
@@ -10999,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>738</v>
       </c>
@@ -11014,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>740</v>
       </c>
@@ -11029,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>742</v>
       </c>
@@ -11047,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>744</v>
       </c>
@@ -11062,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>746</v>
       </c>
@@ -11077,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>748</v>
       </c>
@@ -11092,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>750</v>
       </c>
@@ -11107,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>752</v>
       </c>
@@ -11122,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>754</v>
       </c>
@@ -11137,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>756</v>
       </c>
@@ -11152,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>758</v>
       </c>
@@ -11167,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>760</v>
       </c>
@@ -11182,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>761</v>
       </c>
@@ -11197,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>763</v>
       </c>
@@ -11212,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>765</v>
       </c>
@@ -11227,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>767</v>
       </c>
@@ -11242,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>768</v>
       </c>
@@ -11257,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>770</v>
       </c>
@@ -11272,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>772</v>
       </c>
@@ -11287,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>774</v>
       </c>
@@ -11302,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>776</v>
       </c>
@@ -11317,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>778</v>
       </c>
@@ -11332,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>780</v>
       </c>
@@ -11347,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>782</v>
       </c>
@@ -11362,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>784</v>
       </c>
@@ -11377,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>786</v>
       </c>
@@ -11392,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>788</v>
       </c>
@@ -11407,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>790</v>
       </c>
@@ -11422,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>792</v>
       </c>
@@ -11437,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>794</v>
       </c>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>796</v>
       </c>
@@ -11467,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>798</v>
       </c>
@@ -11482,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>800</v>
       </c>
@@ -11497,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>802</v>
       </c>
@@ -11512,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>804</v>
       </c>
@@ -11527,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>806</v>
       </c>
@@ -11542,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>808</v>
       </c>
@@ -11557,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>810</v>
       </c>
@@ -11572,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>812</v>
       </c>
@@ -11587,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>814</v>
       </c>
@@ -11602,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>816</v>
       </c>
@@ -11617,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>818</v>
       </c>
@@ -11632,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>820</v>
       </c>
@@ -11647,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>822</v>
       </c>
@@ -11662,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>824</v>
       </c>
@@ -11677,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>826</v>
       </c>
@@ -11692,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>828</v>
       </c>
@@ -11707,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>830</v>
       </c>
@@ -11722,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>832</v>
       </c>
@@ -11737,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>834</v>
       </c>
@@ -11752,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>836</v>
       </c>
@@ -11767,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>838</v>
       </c>
@@ -11782,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>840</v>
       </c>
@@ -11797,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>842</v>
       </c>
@@ -11812,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>844</v>
       </c>
@@ -11827,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>846</v>
       </c>
@@ -11842,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>848</v>
       </c>
@@ -11857,7 +11859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>850</v>
       </c>
@@ -11872,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>852</v>
       </c>
@@ -11887,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>854</v>
       </c>
@@ -11902,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>856</v>
       </c>
@@ -11917,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>858</v>
       </c>
@@ -11932,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>860</v>
       </c>
@@ -11947,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>862</v>
       </c>
@@ -11962,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>864</v>
       </c>
@@ -11977,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>866</v>
       </c>
@@ -11992,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>868</v>
       </c>
@@ -12007,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>870</v>
       </c>
@@ -12022,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>872</v>
       </c>
@@ -12037,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>874</v>
       </c>
@@ -12055,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>876</v>
       </c>
@@ -12070,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>878</v>
       </c>
@@ -12085,7 +12087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>880</v>
       </c>
@@ -12103,7 +12105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>882</v>
       </c>
@@ -12118,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>884</v>
       </c>
@@ -12136,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>885</v>
       </c>
@@ -12154,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>887</v>
       </c>
@@ -12169,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>889</v>
       </c>
@@ -12184,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>891</v>
       </c>
@@ -12199,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>893</v>
       </c>
@@ -12214,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>895</v>
       </c>
@@ -12229,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>897</v>
       </c>
@@ -12244,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>899</v>
       </c>
@@ -12259,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>901</v>
       </c>
@@ -12274,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>903</v>
       </c>
@@ -12289,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>905</v>
       </c>
@@ -12304,7 +12306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>907</v>
       </c>
@@ -12319,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>909</v>
       </c>
@@ -12334,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>911</v>
       </c>
@@ -12349,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>913</v>
       </c>
@@ -12364,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>915</v>
       </c>
@@ -12382,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>917</v>
       </c>
@@ -12397,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>918</v>
       </c>
@@ -12412,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>920</v>
       </c>
@@ -12427,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>922</v>
       </c>
@@ -12442,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>924</v>
       </c>
@@ -12460,7 +12462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>926</v>
       </c>
@@ -12475,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>928</v>
       </c>
@@ -12490,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>930</v>
       </c>
@@ -12505,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>932</v>
       </c>
@@ -12520,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>934</v>
       </c>
@@ -12535,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>936</v>
       </c>
@@ -12550,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>938</v>
       </c>
@@ -12565,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>940</v>
       </c>
@@ -12580,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>942</v>
       </c>
@@ -12595,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>944</v>
       </c>
@@ -12613,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>946</v>
       </c>
@@ -12628,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>948</v>
       </c>
@@ -12643,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>950</v>
       </c>
@@ -12658,7 +12660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>952</v>
       </c>
@@ -12673,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>954</v>
       </c>
@@ -12688,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>956</v>
       </c>
@@ -12703,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>958</v>
       </c>
@@ -12718,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>960</v>
       </c>
@@ -12733,7 +12735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>962</v>
       </c>
@@ -12748,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>964</v>
       </c>
@@ -12763,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>966</v>
       </c>
@@ -12778,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>968</v>
       </c>
@@ -12793,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>970</v>
       </c>
@@ -12808,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>972</v>
       </c>
@@ -12826,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>974</v>
       </c>
@@ -12841,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>976</v>
       </c>
@@ -12856,7 +12858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>978</v>
       </c>
@@ -12874,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>980</v>
       </c>
@@ -12892,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>982</v>
       </c>
@@ -12907,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>984</v>
       </c>
@@ -12922,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>986</v>
       </c>
@@ -12937,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>988</v>
       </c>
@@ -12952,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>990</v>
       </c>
@@ -12967,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>992</v>
       </c>
@@ -12982,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>994</v>
       </c>
@@ -12997,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>996</v>
       </c>
@@ -13012,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>998</v>
       </c>
@@ -13027,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>1000</v>
       </c>
@@ -13042,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1002</v>
       </c>
@@ -13057,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1004</v>
       </c>
@@ -13072,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1006</v>
       </c>
@@ -13087,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1008</v>
       </c>
@@ -13102,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1010</v>
       </c>
@@ -13117,7 +13119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1012</v>
       </c>
@@ -13132,7 +13134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1014</v>
       </c>
@@ -13147,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1016</v>
       </c>
@@ -13162,7 +13164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1018</v>
       </c>
@@ -13177,7 +13179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1020</v>
       </c>
@@ -13192,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1022</v>
       </c>
@@ -13207,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1024</v>
       </c>
@@ -13222,7 +13224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1026</v>
       </c>
@@ -13237,7 +13239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1028</v>
       </c>
@@ -13252,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1030</v>
       </c>
@@ -13267,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1032</v>
       </c>
@@ -13282,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1034</v>
       </c>
@@ -13297,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1036</v>
       </c>
@@ -13315,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1038</v>
       </c>
@@ -13333,7 +13335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1040</v>
       </c>
@@ -13348,7 +13350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1042</v>
       </c>
@@ -13366,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1044</v>
       </c>
@@ -13384,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1046</v>
       </c>
@@ -13402,7 +13404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1048</v>
       </c>
@@ -13417,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1050</v>
       </c>
@@ -13432,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1052</v>
       </c>
@@ -13447,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1054</v>
       </c>
@@ -13462,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1056</v>
       </c>
@@ -13480,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1058</v>
       </c>
@@ -13495,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1060</v>
       </c>
@@ -13510,7 +13512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1062</v>
       </c>
@@ -13525,7 +13527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1064</v>
       </c>
@@ -13543,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1066</v>
       </c>
@@ -13558,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1068</v>
       </c>
@@ -13573,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1070</v>
       </c>
@@ -13591,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1072</v>
       </c>
@@ -13609,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1074</v>
       </c>
@@ -13624,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1076</v>
       </c>
@@ -13639,7 +13641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1078</v>
       </c>
@@ -13654,7 +13656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1080</v>
       </c>
@@ -13669,7 +13671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1082</v>
       </c>
@@ -13684,7 +13686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1084</v>
       </c>
@@ -13699,7 +13701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1086</v>
       </c>
@@ -13714,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1088</v>
       </c>
@@ -13729,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1090</v>
       </c>
@@ -13744,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1092</v>
       </c>
@@ -13759,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1094</v>
       </c>
@@ -13774,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1096</v>
       </c>
@@ -13789,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1098</v>
       </c>
@@ -13804,7 +13806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1100</v>
       </c>
@@ -13819,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1102</v>
       </c>
@@ -13834,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1104</v>
       </c>
@@ -13849,7 +13851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1106</v>
       </c>
@@ -13864,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1108</v>
       </c>
@@ -13879,7 +13881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1110</v>
       </c>
@@ -13894,7 +13896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1112</v>
       </c>
@@ -13909,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1114</v>
       </c>
@@ -13927,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1116</v>
       </c>
@@ -13942,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1118</v>
       </c>
@@ -13957,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1120</v>
       </c>
@@ -13972,7 +13974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1122</v>
       </c>
@@ -13990,7 +13992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1124</v>
       </c>
@@ -14008,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1126</v>
       </c>
@@ -14023,7 +14025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1128</v>
       </c>
@@ -14038,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1130</v>
       </c>
@@ -14053,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1132</v>
       </c>
@@ -14068,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1134</v>
       </c>
@@ -14083,7 +14085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1136</v>
       </c>
@@ -14101,7 +14103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1138</v>
       </c>
@@ -14116,7 +14118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1140</v>
       </c>
@@ -14134,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1142</v>
       </c>
@@ -14152,7 +14154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1144</v>
       </c>
@@ -14167,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1146</v>
       </c>
@@ -14185,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1148</v>
       </c>
@@ -14200,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1150</v>
       </c>
@@ -14218,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1152</v>
       </c>
@@ -14233,7 +14235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1154</v>
       </c>
@@ -14251,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1156</v>
       </c>
@@ -14266,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1158</v>
       </c>
@@ -14281,7 +14283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1160</v>
       </c>
@@ -14296,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1162</v>
       </c>
@@ -14314,7 +14316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1164</v>
       </c>
@@ -14332,7 +14334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1166</v>
       </c>
@@ -14347,7 +14349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1168</v>
       </c>
@@ -14362,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1170</v>
       </c>
@@ -14377,7 +14379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1172</v>
       </c>
@@ -14392,7 +14394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1174</v>
       </c>
@@ -14407,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1176</v>
       </c>
@@ -14422,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1178</v>
       </c>
@@ -14437,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1180</v>
       </c>
@@ -14455,7 +14457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1182</v>
       </c>
@@ -14470,7 +14472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1184</v>
       </c>
@@ -14488,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1186</v>
       </c>
@@ -14503,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1188</v>
       </c>
@@ -14521,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1190</v>
       </c>
@@ -14536,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1192</v>
       </c>
@@ -14551,7 +14553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1194</v>
       </c>
@@ -14566,7 +14568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1196</v>
       </c>
@@ -14581,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1198</v>
       </c>
@@ -14596,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1200</v>
       </c>
@@ -14611,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1202</v>
       </c>
@@ -14626,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1204</v>
       </c>
@@ -14641,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1206</v>
       </c>
@@ -14656,7 +14658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1208</v>
       </c>
@@ -14671,7 +14673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1210</v>
       </c>
@@ -14686,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1211</v>
       </c>
@@ -14704,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1213</v>
       </c>
@@ -14719,7 +14721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1214</v>
       </c>
@@ -14734,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1216</v>
       </c>
@@ -14752,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1218</v>
       </c>
@@ -14767,7 +14769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1220</v>
       </c>
@@ -14782,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1222</v>
       </c>
@@ -14800,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1224</v>
       </c>
@@ -14815,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1225</v>
       </c>
@@ -14833,7 +14835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1227</v>
       </c>
@@ -14851,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1229</v>
       </c>
@@ -14869,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1231</v>
       </c>
@@ -14887,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1233</v>
       </c>
@@ -14902,7 +14904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1235</v>
       </c>
@@ -14917,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1237</v>
       </c>
@@ -14932,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1239</v>
       </c>
@@ -14947,7 +14949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1241</v>
       </c>
@@ -14962,7 +14964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1243</v>
       </c>
@@ -14977,7 +14979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1245</v>
       </c>
@@ -14992,7 +14994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1247</v>
       </c>
@@ -15007,7 +15009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1249</v>
       </c>
@@ -15022,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1251</v>
       </c>
@@ -15037,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1252</v>
       </c>
@@ -15052,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1254</v>
       </c>
@@ -15067,7 +15069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1256</v>
       </c>
@@ -15082,7 +15084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1258</v>
       </c>
@@ -15097,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1260</v>
       </c>
@@ -15112,7 +15114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1262</v>
       </c>
@@ -15127,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1264</v>
       </c>
@@ -15142,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1266</v>
       </c>
@@ -15157,7 +15159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1268</v>
       </c>
@@ -15172,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1270</v>
       </c>
@@ -15190,7 +15192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1272</v>
       </c>
@@ -15208,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1274</v>
       </c>
@@ -15226,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1275</v>
       </c>
@@ -15244,7 +15246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1277</v>
       </c>
@@ -15259,7 +15261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1279</v>
       </c>
@@ -15274,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1281</v>
       </c>
@@ -15289,7 +15291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1283</v>
       </c>
@@ -15304,7 +15306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1285</v>
       </c>
@@ -15319,7 +15321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1287</v>
       </c>
@@ -15334,7 +15336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1289</v>
       </c>
@@ -15349,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1291</v>
       </c>
@@ -15367,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1293</v>
       </c>
@@ -15382,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1295</v>
       </c>
@@ -15397,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1297</v>
       </c>
@@ -15412,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1299</v>
       </c>
@@ -15427,7 +15429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1301</v>
       </c>
@@ -15445,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1303</v>
       </c>
@@ -15460,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1305</v>
       </c>
@@ -15475,7 +15477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1307</v>
       </c>
@@ -15490,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1309</v>
       </c>
@@ -15505,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1311</v>
       </c>
@@ -15520,7 +15522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1313</v>
       </c>
@@ -15535,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1315</v>
       </c>
@@ -15550,7 +15552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1317</v>
       </c>
@@ -15565,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1319</v>
       </c>
@@ -15580,7 +15582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1321</v>
       </c>
@@ -15595,7 +15597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1323</v>
       </c>
@@ -15610,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1325</v>
       </c>
@@ -15625,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1327</v>
       </c>
@@ -15640,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1329</v>
       </c>
@@ -15655,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1331</v>
       </c>
@@ -15673,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1333</v>
       </c>
@@ -15688,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1335</v>
       </c>
@@ -15706,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1337</v>
       </c>
@@ -15721,7 +15723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1339</v>
       </c>
@@ -15739,7 +15741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1341</v>
       </c>
@@ -15754,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1343</v>
       </c>
@@ -15769,7 +15771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1345</v>
       </c>
@@ -15784,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1347</v>
       </c>
@@ -15799,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1349</v>
       </c>
@@ -15814,7 +15816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1351</v>
       </c>
@@ -15829,7 +15831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1353</v>
       </c>
@@ -15844,7 +15846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1355</v>
       </c>
@@ -15859,7 +15861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1357</v>
       </c>
@@ -15874,7 +15876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1359</v>
       </c>
@@ -15889,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1361</v>
       </c>
@@ -15904,7 +15906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1363</v>
       </c>
@@ -15919,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1365</v>
       </c>
@@ -15934,7 +15936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1367</v>
       </c>
@@ -15949,7 +15951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1369</v>
       </c>
@@ -15964,7 +15966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1371</v>
       </c>
@@ -15979,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1373</v>
       </c>
@@ -15994,7 +15996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1375</v>
       </c>
@@ -16009,7 +16011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1377</v>
       </c>
@@ -16024,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1379</v>
       </c>
@@ -16039,7 +16041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1381</v>
       </c>
@@ -16054,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1383</v>
       </c>
@@ -16069,7 +16071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1385</v>
       </c>
@@ -16084,7 +16086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1387</v>
       </c>
@@ -16099,7 +16101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1389</v>
       </c>
@@ -16114,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1391</v>
       </c>
@@ -16129,7 +16131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1393</v>
       </c>
@@ -16144,7 +16146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1395</v>
       </c>
@@ -16159,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1397</v>
       </c>
@@ -16174,7 +16176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1399</v>
       </c>
@@ -16189,7 +16191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1401</v>
       </c>
@@ -16204,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1403</v>
       </c>
@@ -16219,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1405</v>
       </c>
@@ -16234,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1407</v>
       </c>
@@ -16249,7 +16251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1409</v>
       </c>
@@ -16264,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1411</v>
       </c>
@@ -16279,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1413</v>
       </c>
@@ -16297,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1415</v>
       </c>
@@ -16315,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1417</v>
       </c>
@@ -16330,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1419</v>
       </c>
@@ -16348,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1421</v>
       </c>
@@ -16366,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1423</v>
       </c>
@@ -16381,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1425</v>
       </c>
@@ -16396,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1427</v>
       </c>
@@ -16411,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1429</v>
       </c>
@@ -16429,7 +16431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1431</v>
       </c>
@@ -16444,7 +16446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1433</v>
       </c>
@@ -16459,7 +16461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1435</v>
       </c>
@@ -16474,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1437</v>
       </c>
@@ -16489,7 +16491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1439</v>
       </c>
@@ -16504,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1441</v>
       </c>
@@ -16519,7 +16521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1443</v>
       </c>
@@ -16534,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1445</v>
       </c>
@@ -16549,7 +16551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1447</v>
       </c>
@@ -16564,7 +16566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1449</v>
       </c>
@@ -16579,7 +16581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1451</v>
       </c>
@@ -16594,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1453</v>
       </c>
@@ -16612,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1455</v>
       </c>
@@ -16627,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1457</v>
       </c>
@@ -16645,7 +16647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1459</v>
       </c>
@@ -16660,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1461</v>
       </c>
@@ -16675,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1463</v>
       </c>
@@ -16690,7 +16692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1465</v>
       </c>
@@ -16705,7 +16707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1467</v>
       </c>
@@ -16720,7 +16722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1469</v>
       </c>
@@ -16735,7 +16737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1471</v>
       </c>
@@ -16750,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1473</v>
       </c>
@@ -16765,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1475</v>
       </c>
@@ -16780,7 +16782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1477</v>
       </c>
@@ -16795,7 +16797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1479</v>
       </c>
@@ -16810,7 +16812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1481</v>
       </c>
@@ -16825,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1483</v>
       </c>
@@ -16840,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1485</v>
       </c>
@@ -16855,7 +16857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1487</v>
       </c>
@@ -16870,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1489</v>
       </c>
@@ -16888,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1491</v>
       </c>
@@ -16903,7 +16905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1493</v>
       </c>
@@ -16918,7 +16920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1495</v>
       </c>
@@ -16933,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1497</v>
       </c>
@@ -16948,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1499</v>
       </c>
@@ -16963,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1501</v>
       </c>
@@ -16978,7 +16980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1503</v>
       </c>
@@ -16993,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1505</v>
       </c>
@@ -17008,7 +17010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1507</v>
       </c>
@@ -17023,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1509</v>
       </c>
@@ -17038,7 +17040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1511</v>
       </c>
@@ -17053,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1513</v>
       </c>
@@ -17068,7 +17070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1515</v>
       </c>
@@ -17083,7 +17085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1517</v>
       </c>
@@ -17098,7 +17100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1519</v>
       </c>
@@ -17113,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1521</v>
       </c>
@@ -17128,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1523</v>
       </c>
@@ -17143,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1525</v>
       </c>
@@ -17158,7 +17160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1527</v>
       </c>
@@ -17173,7 +17175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1529</v>
       </c>
@@ -17191,7 +17193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1531</v>
       </c>
@@ -17206,7 +17208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1533</v>
       </c>
@@ -17224,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1535</v>
       </c>
@@ -17239,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>1537</v>
       </c>
@@ -17254,7 +17256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>1539</v>
       </c>
@@ -17269,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>1541</v>
       </c>
@@ -17284,7 +17286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>1543</v>
       </c>
@@ -17299,7 +17301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>1545</v>
       </c>
@@ -17314,7 +17316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>1547</v>
       </c>
@@ -17329,7 +17331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>1549</v>
       </c>
@@ -17344,7 +17346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>1551</v>
       </c>
@@ -17359,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>1553</v>
       </c>
@@ -17374,7 +17376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>1555</v>
       </c>
@@ -17389,7 +17391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>1557</v>
       </c>
@@ -17404,7 +17406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>1559</v>
       </c>
@@ -17419,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>1561</v>
       </c>
@@ -17434,7 +17436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>1563</v>
       </c>
@@ -17449,7 +17451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>1565</v>
       </c>
@@ -17464,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>1567</v>
       </c>
@@ -17479,7 +17481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>1569</v>
       </c>
@@ -17497,7 +17499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>1571</v>
       </c>
@@ -17512,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>1573</v>
       </c>
@@ -17527,7 +17529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>1574</v>
       </c>
@@ -17542,7 +17544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>1576</v>
       </c>
@@ -17557,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>1577</v>
       </c>
@@ -17572,7 +17574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>1579</v>
       </c>
@@ -17587,7 +17589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" t="s">
         <v>1581</v>
       </c>
@@ -17602,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" t="s">
         <v>1583</v>
       </c>
@@ -17617,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" t="s">
         <v>1585</v>
       </c>
@@ -17632,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" t="s">
         <v>1587</v>
       </c>
@@ -17647,7 +17649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" t="s">
         <v>1589</v>
       </c>
@@ -17662,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" t="s">
         <v>1591</v>
       </c>
@@ -17677,7 +17679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" t="s">
         <v>1593</v>
       </c>
@@ -17692,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" t="s">
         <v>1595</v>
       </c>
@@ -17707,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" t="s">
         <v>1597</v>
       </c>
@@ -17722,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" t="s">
         <v>1599</v>
       </c>
@@ -17737,7 +17739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" t="s">
         <v>1601</v>
       </c>
@@ -17752,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" t="s">
         <v>1603</v>
       </c>
@@ -17770,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" t="s">
         <v>1605</v>
       </c>
@@ -17785,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" t="s">
         <v>1607</v>
       </c>
@@ -17800,7 +17802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" t="s">
         <v>1609</v>
       </c>
@@ -17818,7 +17820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" t="s">
         <v>1611</v>
       </c>
@@ -17833,7 +17835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" t="s">
         <v>1613</v>
       </c>
@@ -17848,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" t="s">
         <v>1615</v>
       </c>
@@ -17866,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" t="s">
         <v>1617</v>
       </c>
@@ -17881,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" t="s">
         <v>1617</v>
       </c>
@@ -17896,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" t="s">
         <v>1620</v>
       </c>
@@ -17911,7 +17913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" t="s">
         <v>1622</v>
       </c>
@@ -17926,7 +17928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" t="s">
         <v>1624</v>
       </c>
@@ -17941,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" t="s">
         <v>1626</v>
       </c>
@@ -17959,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" t="s">
         <v>1628</v>
       </c>
@@ -17974,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" t="s">
         <v>1630</v>
       </c>
@@ -17989,7 +17991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" t="s">
         <v>1632</v>
       </c>
@@ -18004,7 +18006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" t="s">
         <v>1634</v>
       </c>
@@ -18020,16 +18022,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E825" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E825" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
